--- a/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.xlsx
+++ b/IL6MCP1/OUTPUT/20200625.AEDB.CEA.Cox.2G.MODEL1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">MCP1_pg_ug_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_pg_ml_2015_rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP1_rank</t>
   </si>
   <si>
     <t xml:space="preserve">epstroke.3years</t>
@@ -453,28 +459,28 @@
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0370925663061973</v>
+        <v>0.109110457720438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.169988477998965</v>
+        <v>0.185236502181912</v>
       </c>
       <c r="F2" t="n">
-        <v>1.03778908069395</v>
+        <v>1.11528553543583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.743724319909051</v>
+        <v>0.775728193273921</v>
       </c>
       <c r="H2" t="n">
-        <v>1.44812553143253</v>
+        <v>1.60347636754407</v>
       </c>
       <c r="I2" t="n">
-        <v>0.218206355765024</v>
+        <v>0.589033243638374</v>
       </c>
       <c r="J2" t="n">
-        <v>0.827268333215107</v>
+        <v>0.55583897327207</v>
       </c>
       <c r="K2" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L2" t="n">
         <v>139</v>
@@ -485,37 +491,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="n">
-        <v>0.136457104872769</v>
+        <v>-0.0124325654075699</v>
       </c>
       <c r="E3" t="n">
-        <v>0.235075024574816</v>
+        <v>0.189652402427621</v>
       </c>
       <c r="F3" t="n">
-        <v>1.14620571008148</v>
+        <v>0.987644399645869</v>
       </c>
       <c r="G3" t="n">
-        <v>0.723040571220117</v>
+        <v>0.681028397384233</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81703154998122</v>
+        <v>1.43230658794615</v>
       </c>
       <c r="I3" t="n">
-        <v>0.580483210071258</v>
+        <v>-0.0655544841427181</v>
       </c>
       <c r="J3" t="n">
-        <v>0.561588805978889</v>
+        <v>0.94773252751171</v>
       </c>
       <c r="K3" t="n">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="L3" t="n">
-        <v>73</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -523,37 +529,37 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="n">
-        <v>-0.174453719618087</v>
+        <v>-0.27321691717627</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21048123985782</v>
+        <v>0.253769136620049</v>
       </c>
       <c r="F4" t="n">
-        <v>0.839915724950253</v>
+        <v>0.760927711435141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.555994459483235</v>
+        <v>0.462733296218974</v>
       </c>
       <c r="H4" t="n">
-        <v>1.26882276070591</v>
+        <v>1.25128445858783</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.828832630100099</v>
+        <v>-1.07663572022684</v>
       </c>
       <c r="J4" t="n">
-        <v>0.407199121419218</v>
+        <v>0.281643039650307</v>
       </c>
       <c r="K4" t="n">
-        <v>1184</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
@@ -567,31 +573,335 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.110904468871513</v>
+        <v>0.305916951796889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.298773616522307</v>
+        <v>0.257882219168381</v>
       </c>
       <c r="F5" t="n">
-        <v>0.895024247521467</v>
+        <v>1.35786953324035</v>
       </c>
       <c r="G5" t="n">
-        <v>0.498326020131158</v>
+        <v>0.819113846746521</v>
       </c>
       <c r="H5" t="n">
-        <v>1.60751871523893</v>
+        <v>2.25098095536523</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.371199003989806</v>
+        <v>1.18626616749076</v>
       </c>
       <c r="J5" t="n">
-        <v>0.71048931490538</v>
+        <v>0.235517203065819</v>
       </c>
       <c r="K5" t="n">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L5" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0802507513231576</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.260754086232535</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.08355873739989</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.649971178598896</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.80638707692635</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.307764117842401</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.758261826972502</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L6" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.382334210661852</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.351409093297658</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.682266994193947</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.342632774535179</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.35856312052439</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1.0880031790697</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.276593704098031</v>
+      </c>
+      <c r="K7" t="n">
+        <v>549</v>
+      </c>
+      <c r="L7" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.215530764113133</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.227947710052008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.806113470510643</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.515659674924895</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.26017014503482</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.94552721790431</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.344389781976305</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L8" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0631563377814632</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.234085342666354</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.06519335618066</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.673241660804058</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.68533373988814</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.269800479868068</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.787313753627286</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L9" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.196482239218439</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.314183517078195</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.2171137037956</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.657495437409902</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.25304341852567</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.625374115885072</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.531725546344934</v>
+      </c>
+      <c r="K10" t="n">
+        <v>549</v>
+      </c>
+      <c r="L10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.029035347507777</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.323506909861162</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.971382127922432</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.515246995264451</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.83132215640154</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.0897518619315982</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.928484402343315</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1186</v>
+      </c>
+      <c r="L11" t="n">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.201269455840919</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.33297833575438</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.817692069962009</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.425748282323535</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.57045923386875</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.604452104623961</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.545543103119405</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1187</v>
+      </c>
+      <c r="L12" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.0979334533145785</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.416021477852458</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.906709240240881</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.401183821129396</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.04923928393671</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.235404801261993</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.813894559905866</v>
+      </c>
+      <c r="K13" t="n">
+        <v>549</v>
+      </c>
+      <c r="L13" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
